--- a/lista_simples/tabela.xlsx
+++ b/lista_simples/tabela.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t xml:space="preserve">algoritmo</t>
   </si>
@@ -74,6 +74,42 @@
   </si>
   <si>
     <t xml:space="preserve">0.000028s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000005s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002420s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista960k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003699s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bubblesort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003708s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332104s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.739639s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista1000k</t>
   </si>
 </sst>
 </file>
@@ -113,12 +149,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,6 +214,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,6 +231,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -189,19 +299,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,6 +394,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
@@ -362,6 +480,173 @@
       </c>
       <c r="F9" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5524699</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>8502271</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>195931</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>953340</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>960000</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>4280311</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>666666</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>960000</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/lista_simples/tabela.xlsx
+++ b/lista_simples/tabela.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t xml:space="preserve">algoritmo</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">lista1000k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3745.953369s</t>
   </si>
 </sst>
 </file>
@@ -302,10 +305,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="30.97"/>
@@ -648,6 +651,15 @@
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>960000</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
